--- a/data/trans_media/Q23_1_2015-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Provincia-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,3; 16,56</t>
+          <t>15,28; 16,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 17,63</t>
+          <t>16,09; 17,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,68</t>
+          <t>17,08; 18,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 19,22</t>
+          <t>17,47; 19,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 17,29</t>
+          <t>16,17; 17,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,99</t>
+          <t>16,79; 18,0</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,76</t>
+          <t>16,06; 16,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,35</t>
+          <t>16,41; 17,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,98</t>
+          <t>16,76; 17,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,35</t>
+          <t>17,18; 18,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 17,07</t>
+          <t>16,46; 17,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,56</t>
+          <t>16,79; 17,55</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 18,04</t>
+          <t>16,47; 17,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 16,76</t>
+          <t>15,64; 16,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 18,67</t>
+          <t>16,84; 18,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 17,36</t>
+          <t>16,47; 17,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,92</t>
+          <t>16,88; 17,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,86</t>
+          <t>16,15; 16,88</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 17,38</t>
+          <t>16,08; 17,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,39</t>
+          <t>16,65; 17,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 18,81</t>
+          <t>17,3; 18,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,94</t>
+          <t>17,01; 17,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,68</t>
+          <t>16,69; 17,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,47</t>
+          <t>16,9; 17,5</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,56</t>
+          <t>16,28; 17,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 19,08</t>
+          <t>17,24; 19,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 17,73</t>
+          <t>16,21; 17,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,44</t>
+          <t>16,94; 18,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,41</t>
+          <t>16,46; 17,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,5</t>
+          <t>17,25; 18,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 18,15</t>
+          <t>16,54; 17,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,81; 17,24</t>
+          <t>15,79; 17,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,57</t>
+          <t>17,32; 19,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,81</t>
+          <t>15,89; 16,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,36</t>
+          <t>17,0; 18,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,86</t>
+          <t>15,94; 16,92</t>
         </is>
       </c>
     </row>
@@ -1119,22 +1119,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 16,67</t>
+          <t>16,02; 16,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,48</t>
+          <t>16,48; 17,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,77; 17,89</t>
+          <t>16,79; 17,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,52</t>
+          <t>17,52; 18,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,84</t>
+          <t>17,1; 17,83</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,01; 16,8</t>
+          <t>16,01; 16,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,49</t>
+          <t>16,07; 16,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,58; 19,0</t>
+          <t>17,61; 19,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,4</t>
+          <t>16,66; 17,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,61</t>
+          <t>16,82; 17,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,7</t>
+          <t>16,31; 16,71</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,67</t>
+          <t>16,32; 16,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,46; 16,84</t>
+          <t>16,46; 16,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,25; 17,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,14</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,11</t>
+          <t>16,83; 17,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_1_2015-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Provincia-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 16,52</t>
+          <t>15,31; 16,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,86</t>
+          <t>17,03; 18,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 17,3</t>
+          <t>16,18; 17,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,78</t>
+          <t>16,1; 16,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,95</t>
+          <t>16,82; 18,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,08</t>
+          <t>16,44; 17,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,86</t>
+          <t>16,5; 18,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,62</t>
+          <t>16,91; 18,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,88</t>
+          <t>16,84; 17,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 17,3</t>
+          <t>16,03; 17,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 18,81</t>
+          <t>17,22; 18,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,61</t>
+          <t>16,72; 17,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,28; 17,68</t>
+          <t>16,35; 17,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 17,77</t>
+          <t>16,23; 17,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,43</t>
+          <t>16,42; 17,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,54; 17,97</t>
+          <t>16,49; 18,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 19,54</t>
+          <t>17,3; 19,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,2</t>
+          <t>16,96; 18,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 16,66</t>
+          <t>16,02; 16,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,91</t>
+          <t>16,77; 17,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,05</t>
+          <t>16,45; 17,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,61; 19,03</t>
+          <t>17,59; 19,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,59</t>
+          <t>16,82; 17,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,67</t>
+          <t>16,32; 16,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,95</t>
+          <t>17,42; 17,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,13</t>
+          <t>16,84; 17,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
